--- a/Temp/parisVdortmund.xlsx
+++ b/Temp/parisVdortmund.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kovan\Rsoccer\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{136AA44B-5DD0-4057-8B5C-16A937212588}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA8F044-E6D7-4BCC-A8E7-A15CABE8A222}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="118">
   <si>
     <t>Div</t>
   </si>
@@ -229,12 +229,12 @@
     <t>Lorient</t>
   </si>
   <si>
+    <t>Bayern Munich</t>
+  </si>
+  <si>
     <t>Dortmund</t>
   </si>
   <si>
-    <t>Bayern Munich</t>
-  </si>
-  <si>
     <t>Mgladbach</t>
   </si>
   <si>
@@ -250,15 +250,15 @@
     <t>Le Havre</t>
   </si>
   <si>
-    <t>Ein Frankfurt</t>
-  </si>
-  <si>
     <t>Stuttgart</t>
   </si>
   <si>
     <t>Leverkusen</t>
   </si>
   <si>
+    <t>Augsburg</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
@@ -286,22 +286,22 @@
     <t>1-2</t>
   </si>
   <si>
+    <t>2-1</t>
+  </si>
+  <si>
+    <t>2-6</t>
+  </si>
+  <si>
     <t>1-1</t>
   </si>
   <si>
-    <t>2-1</t>
-  </si>
-  <si>
-    <t>2-6</t>
-  </si>
-  <si>
     <t>1-4</t>
   </si>
   <si>
     <t>3-3</t>
   </si>
   <si>
-    <t>3-1</t>
+    <t>5-1</t>
   </si>
   <si>
     <t>7-4</t>
@@ -331,6 +331,9 @@
     <t>5-8</t>
   </si>
   <si>
+    <t>6-9</t>
+  </si>
+  <si>
     <t>Y</t>
   </si>
   <si>
@@ -355,9 +358,6 @@
     <t>Paris SG-Le Havre</t>
   </si>
   <si>
-    <t>Dortmund-Ein Frankfurt</t>
-  </si>
-  <si>
     <t>Bayern Munich-Dortmund</t>
   </si>
   <si>
@@ -371,6 +371,9 @@
   </si>
   <si>
     <t>RB Leipzig-Dortmund</t>
+  </si>
+  <si>
+    <t>Dortmund-Augsburg</t>
   </si>
 </sst>
 </file>
@@ -728,56 +731,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AY14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="AF22" sqref="AF22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.5703125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="3.42578125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="31" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="35" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="31" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="35" width="6" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="9" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="14" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.25">
@@ -979,7 +981,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q2">
         <v>12</v>
@@ -1030,13 +1032,13 @@
         <v>94</v>
       </c>
       <c r="AG2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AH2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AI2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AJ2">
         <v>3</v>
@@ -1045,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="AL2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AM2">
         <v>366</v>
@@ -1185,13 +1187,13 @@
         <v>95</v>
       </c>
       <c r="AG3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AH3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AI3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AJ3">
         <v>4</v>
@@ -1200,7 +1202,7 @@
         <v>1</v>
       </c>
       <c r="AL3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AM3">
         <v>138</v>
@@ -1289,7 +1291,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Q4">
         <v>23</v>
@@ -1340,13 +1342,13 @@
         <v>96</v>
       </c>
       <c r="AG4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AH4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AI4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AJ4">
         <v>1</v>
@@ -1355,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="AL4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AM4">
         <v>117</v>
@@ -1495,13 +1497,13 @@
         <v>97</v>
       </c>
       <c r="AG5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AH5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AI5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AJ5">
         <v>0</v>
@@ -1510,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="AL5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AM5">
         <v>121</v>
@@ -1650,13 +1652,13 @@
         <v>98</v>
       </c>
       <c r="AG6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AH6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AI6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AJ6">
         <v>2</v>
@@ -1665,7 +1667,7 @@
         <v>0</v>
       </c>
       <c r="AL6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AM6">
         <v>264</v>
@@ -1805,13 +1807,13 @@
         <v>99</v>
       </c>
       <c r="AG7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AH7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AI7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AJ7">
         <v>3</v>
@@ -1820,7 +1822,7 @@
         <v>0</v>
       </c>
       <c r="AL7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AM7">
         <v>315</v>
@@ -1870,85 +1872,85 @@
         <v>64</v>
       </c>
       <c r="C8" s="1">
-        <v>45368</v>
+        <v>45381</v>
       </c>
       <c r="D8" t="s">
         <v>69</v>
       </c>
       <c r="E8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L8">
-        <v>1.63</v>
+        <v>1.39</v>
       </c>
       <c r="M8">
-        <v>4.47</v>
+        <v>5.92</v>
       </c>
       <c r="N8">
-        <v>5.01</v>
+        <v>6.7</v>
       </c>
       <c r="O8" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="P8" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="Q8">
         <v>16</v>
       </c>
       <c r="R8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="S8">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="T8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>7</v>
+      </c>
+      <c r="Z8">
+        <v>4</v>
+      </c>
+      <c r="AA8">
+        <v>7</v>
+      </c>
+      <c r="AB8">
+        <v>7</v>
+      </c>
+      <c r="AC8">
         <v>2</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
-      <c r="Y8">
-        <v>8</v>
-      </c>
-      <c r="Z8">
-        <v>3</v>
-      </c>
-      <c r="AA8">
-        <v>5</v>
-      </c>
-      <c r="AB8">
-        <v>9</v>
-      </c>
-      <c r="AC8">
-        <v>4</v>
       </c>
       <c r="AD8">
         <v>11</v>
@@ -1957,64 +1959,64 @@
         <v>14</v>
       </c>
       <c r="AF8" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="AG8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AH8" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AI8" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AJ8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK8">
         <v>0</v>
       </c>
       <c r="AL8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AM8">
-        <v>217</v>
+        <v>93</v>
       </c>
       <c r="AN8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AO8">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="AP8">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AQ8">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AR8">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AS8">
-        <v>330</v>
+        <v>0</v>
       </c>
       <c r="AT8">
-        <v>2760</v>
+        <v>0</v>
       </c>
       <c r="AU8">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="AV8">
-        <v>368</v>
+        <v>106</v>
       </c>
       <c r="AW8">
-        <v>1012</v>
+        <v>583</v>
       </c>
       <c r="AX8">
-        <v>2387</v>
+        <v>1023</v>
       </c>
       <c r="AY8">
-        <v>1320</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:51" x14ac:dyDescent="0.25">
@@ -2025,19 +2027,19 @@
         <v>64</v>
       </c>
       <c r="C9" s="1">
-        <v>45381</v>
+        <v>45388</v>
       </c>
       <c r="D9" t="s">
         <v>70</v>
       </c>
       <c r="E9" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9" t="s">
         <v>79</v>
@@ -2046,130 +2048,130 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L9">
-        <v>1.39</v>
+        <v>2.31</v>
       </c>
       <c r="M9">
-        <v>5.92</v>
+        <v>3.95</v>
       </c>
       <c r="N9">
-        <v>6.7</v>
+        <v>2.88</v>
       </c>
       <c r="O9" t="s">
+        <v>83</v>
+      </c>
+      <c r="P9" t="s">
         <v>84</v>
       </c>
-      <c r="P9" t="s">
-        <v>86</v>
-      </c>
       <c r="Q9">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="R9">
+        <v>7</v>
+      </c>
+      <c r="S9">
+        <v>10</v>
+      </c>
+      <c r="T9">
+        <v>2</v>
+      </c>
+      <c r="U9">
+        <v>2</v>
+      </c>
+      <c r="V9">
+        <v>4</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>8</v>
+      </c>
+      <c r="Z9">
         <v>3</v>
       </c>
-      <c r="S9">
-        <v>11</v>
-      </c>
-      <c r="T9">
-        <v>5</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
-      <c r="Y9">
-        <v>7</v>
-      </c>
-      <c r="Z9">
-        <v>4</v>
-      </c>
       <c r="AA9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AC9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD9">
         <v>11</v>
       </c>
       <c r="AE9">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AF9" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="AG9" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AH9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AI9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AJ9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AK9">
         <v>0</v>
       </c>
       <c r="AL9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AM9">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="AN9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO9">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="AP9">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AQ9">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="AR9">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AS9">
-        <v>0</v>
+        <v>660</v>
       </c>
       <c r="AT9">
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="AU9">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="AV9">
-        <v>106</v>
+        <v>9</v>
       </c>
       <c r="AW9">
-        <v>583</v>
+        <v>99</v>
       </c>
       <c r="AX9">
-        <v>1023</v>
+        <v>704</v>
       </c>
       <c r="AY9">
-        <v>0</v>
+        <v>660</v>
       </c>
     </row>
     <row r="10" spans="1:51" x14ac:dyDescent="0.25">
@@ -2180,61 +2182,61 @@
         <v>64</v>
       </c>
       <c r="C10" s="1">
-        <v>45388</v>
+        <v>45395</v>
       </c>
       <c r="D10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E10" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10" t="s">
         <v>79</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L10">
-        <v>2.31</v>
+        <v>3.29</v>
       </c>
       <c r="M10">
-        <v>3.95</v>
+        <v>4.24</v>
       </c>
       <c r="N10">
-        <v>2.88</v>
+        <v>2.02</v>
       </c>
       <c r="O10" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="Q10">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="R10">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="S10">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="T10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V10">
         <v>4</v>
@@ -2243,31 +2245,31 @@
         <v>0</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y10">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="Z10">
+        <v>4</v>
+      </c>
+      <c r="AA10">
+        <v>13</v>
+      </c>
+      <c r="AB10">
+        <v>11</v>
+      </c>
+      <c r="AC10">
         <v>3</v>
       </c>
-      <c r="AA10">
-        <v>8</v>
-      </c>
-      <c r="AB10">
-        <v>8</v>
-      </c>
-      <c r="AC10">
-        <v>1</v>
-      </c>
       <c r="AD10">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AE10">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="AF10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AG10" t="s">
         <v>104</v>
@@ -2276,55 +2278,55 @@
         <v>104</v>
       </c>
       <c r="AI10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AJ10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AM10">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="AN10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO10">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="AP10">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AQ10">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="AR10">
-        <v>60</v>
+        <v>225</v>
       </c>
       <c r="AS10">
-        <v>660</v>
+        <v>450</v>
       </c>
       <c r="AT10">
-        <v>540</v>
+        <v>5925</v>
       </c>
       <c r="AU10">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="AV10">
-        <v>9</v>
+        <v>237</v>
       </c>
       <c r="AW10">
-        <v>99</v>
+        <v>632</v>
       </c>
       <c r="AX10">
-        <v>704</v>
+        <v>516</v>
       </c>
       <c r="AY10">
-        <v>660</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="11" spans="1:51" x14ac:dyDescent="0.25">
@@ -2335,151 +2337,151 @@
         <v>64</v>
       </c>
       <c r="C11" s="1">
-        <v>45395</v>
+        <v>45403</v>
       </c>
       <c r="D11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E11" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11">
+        <v>2.56</v>
+      </c>
+      <c r="M11">
+        <v>3.84</v>
+      </c>
+      <c r="N11">
+        <v>2.5</v>
+      </c>
+      <c r="O11" t="s">
+        <v>83</v>
+      </c>
+      <c r="P11" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q11">
+        <v>9</v>
+      </c>
+      <c r="R11">
         <v>2</v>
       </c>
-      <c r="H11" t="s">
-        <v>79</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>2</v>
-      </c>
-      <c r="K11" t="s">
-        <v>79</v>
-      </c>
-      <c r="L11">
-        <v>3.29</v>
-      </c>
-      <c r="M11">
-        <v>4.24</v>
-      </c>
-      <c r="N11">
-        <v>2.02</v>
-      </c>
-      <c r="O11" t="s">
-        <v>87</v>
-      </c>
-      <c r="P11" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q11">
-        <v>16</v>
-      </c>
-      <c r="R11">
+      <c r="S11">
+        <v>13</v>
+      </c>
+      <c r="T11">
         <v>5</v>
       </c>
-      <c r="S11">
-        <v>12</v>
-      </c>
-      <c r="T11">
+      <c r="U11">
         <v>4</v>
       </c>
-      <c r="U11">
-        <v>1</v>
-      </c>
       <c r="V11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y11">
         <v>2</v>
       </c>
       <c r="Z11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AA11">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AB11">
         <v>11</v>
       </c>
       <c r="AC11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD11">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AE11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AF11" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="AG11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AH11" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AI11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AJ11">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AK11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AM11">
-        <v>86</v>
+        <v>171</v>
       </c>
       <c r="AN11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO11">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="AP11">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AQ11">
-        <v>650</v>
+        <v>1200</v>
       </c>
       <c r="AR11">
-        <v>225</v>
+        <v>140</v>
       </c>
       <c r="AS11">
-        <v>450</v>
+        <v>560</v>
       </c>
       <c r="AT11">
-        <v>5925</v>
+        <v>1120</v>
       </c>
       <c r="AU11">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AV11">
-        <v>237</v>
+        <v>32</v>
       </c>
       <c r="AW11">
-        <v>632</v>
+        <v>128</v>
       </c>
       <c r="AX11">
-        <v>516</v>
+        <v>1368</v>
       </c>
       <c r="AY11">
-        <v>1350</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="12" spans="1:51" x14ac:dyDescent="0.25">
@@ -2490,64 +2492,64 @@
         <v>64</v>
       </c>
       <c r="C12" s="1">
-        <v>45403</v>
+        <v>45409</v>
       </c>
       <c r="D12" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E12" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L12">
-        <v>2.56</v>
+        <v>1.68</v>
       </c>
       <c r="M12">
-        <v>3.84</v>
+        <v>4.45</v>
       </c>
       <c r="N12">
-        <v>2.5</v>
+        <v>4.6100000000000003</v>
       </c>
       <c r="O12" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="Q12">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="R12">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="S12">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T12">
         <v>5</v>
       </c>
       <c r="U12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W12">
         <v>0</v>
@@ -2556,31 +2558,31 @@
         <v>0</v>
       </c>
       <c r="Y12">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Z12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AA12">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AB12">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AC12">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AD12">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AE12">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AF12" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="AG12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AH12" t="s">
         <v>104</v>
@@ -2589,52 +2591,52 @@
         <v>104</v>
       </c>
       <c r="AJ12">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AK12">
         <v>0</v>
       </c>
       <c r="AL12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AM12">
-        <v>171</v>
+        <v>214</v>
       </c>
       <c r="AN12">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AO12">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="AP12">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="AQ12">
-        <v>1200</v>
+        <v>200</v>
       </c>
       <c r="AR12">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AS12">
-        <v>560</v>
+        <v>390</v>
       </c>
       <c r="AT12">
-        <v>1120</v>
+        <v>2190</v>
       </c>
       <c r="AU12">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="AV12">
-        <v>32</v>
+        <v>365</v>
       </c>
       <c r="AW12">
-        <v>128</v>
+        <v>949</v>
       </c>
       <c r="AX12">
-        <v>1368</v>
+        <v>2782</v>
       </c>
       <c r="AY12">
-        <v>1120</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="13" spans="1:51" x14ac:dyDescent="0.25">
@@ -2645,16 +2647,16 @@
         <v>64</v>
       </c>
       <c r="C13" s="1">
-        <v>45409</v>
+        <v>45416</v>
       </c>
       <c r="D13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E13" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="F13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -2663,7 +2665,7 @@
         <v>81</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -2672,37 +2674,37 @@
         <v>81</v>
       </c>
       <c r="L13">
-        <v>1.68</v>
+        <v>1.86</v>
       </c>
       <c r="M13">
-        <v>4.45</v>
+        <v>4.37</v>
       </c>
       <c r="N13">
-        <v>4.6100000000000003</v>
+        <v>3.7</v>
       </c>
       <c r="O13" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="Q13">
         <v>21</v>
       </c>
       <c r="R13">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="S13">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="T13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W13">
         <v>0</v>
@@ -2711,85 +2713,85 @@
         <v>0</v>
       </c>
       <c r="Y13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AA13">
+        <v>4</v>
+      </c>
+      <c r="AB13">
         <v>11</v>
       </c>
-      <c r="AB13">
-        <v>7</v>
-      </c>
       <c r="AC13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD13">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE13">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AF13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AG13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AH13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AI13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AJ13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AK13">
         <v>0</v>
       </c>
       <c r="AL13" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AM13">
-        <v>214</v>
+        <v>183</v>
       </c>
       <c r="AN13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO13">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="AP13">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="AQ13">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AR13">
+        <v>60</v>
+      </c>
+      <c r="AS13">
         <v>150</v>
       </c>
-      <c r="AS13">
-        <v>390</v>
-      </c>
       <c r="AT13">
-        <v>2190</v>
+        <v>920</v>
       </c>
       <c r="AU13">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="AV13">
-        <v>365</v>
+        <v>552</v>
       </c>
       <c r="AW13">
-        <v>949</v>
+        <v>1380</v>
       </c>
       <c r="AX13">
-        <v>2782</v>
+        <v>2745</v>
       </c>
       <c r="AY13">
-        <v>1950</v>
+        <v>900</v>
       </c>
     </row>
     <row r="14" spans="1:51" x14ac:dyDescent="0.25">
@@ -2800,16 +2802,16 @@
         <v>64</v>
       </c>
       <c r="C14" s="1">
-        <v>45409</v>
+        <v>45416</v>
       </c>
       <c r="D14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E14" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="F14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -2818,7 +2820,7 @@
         <v>81</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -2827,37 +2829,37 @@
         <v>81</v>
       </c>
       <c r="L14">
-        <v>1.68</v>
+        <v>1.86</v>
       </c>
       <c r="M14">
-        <v>4.45</v>
+        <v>4.37</v>
       </c>
       <c r="N14">
-        <v>4.6100000000000003</v>
+        <v>3.7</v>
       </c>
       <c r="O14" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="P14" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="Q14">
         <v>21</v>
       </c>
       <c r="R14">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="S14">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="T14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W14">
         <v>0</v>
@@ -2866,85 +2868,85 @@
         <v>0</v>
       </c>
       <c r="Y14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AA14">
+        <v>4</v>
+      </c>
+      <c r="AB14">
         <v>11</v>
       </c>
-      <c r="AB14">
-        <v>7</v>
-      </c>
       <c r="AC14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AD14">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE14">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AF14" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AG14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AH14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AI14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AJ14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AK14">
         <v>0</v>
       </c>
       <c r="AL14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AM14">
-        <v>180.5</v>
+        <v>177.66666666666666</v>
       </c>
       <c r="AN14">
-        <v>3.75</v>
+        <v>3.9166666666666665</v>
       </c>
       <c r="AO14">
         <v>68</v>
       </c>
       <c r="AP14">
-        <v>35</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="AQ14">
-        <v>279.16666666666669</v>
+        <v>262.5</v>
       </c>
       <c r="AR14">
-        <v>113.75</v>
+        <v>108.75</v>
       </c>
       <c r="AS14">
-        <v>333.33333333333331</v>
+        <v>318.33333333333331</v>
       </c>
       <c r="AT14">
-        <v>1992.0833333333333</v>
+        <v>1838.75</v>
       </c>
       <c r="AU14">
-        <v>42.583333333333336</v>
+        <v>46.416666666666664</v>
       </c>
       <c r="AV14">
-        <v>329.41666666666669</v>
+        <v>344.75</v>
       </c>
       <c r="AW14">
-        <v>794.5</v>
+        <v>825.16666666666663</v>
       </c>
       <c r="AX14">
-        <v>2024.8333333333333</v>
+        <v>2054.6666666666665</v>
       </c>
       <c r="AY14">
-        <v>1141.6666666666667</v>
+        <v>1106.6666666666667</v>
       </c>
     </row>
   </sheetData>
